--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H2">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>60918.6279520294</v>
+        <v>67254.68982566085</v>
       </c>
       <c r="R2">
-        <v>548267.6515682645</v>
+        <v>605292.2084309477</v>
       </c>
       <c r="S2">
-        <v>0.2229433542252176</v>
+        <v>0.245530504754907</v>
       </c>
       <c r="T2">
-        <v>0.2229433542252175</v>
+        <v>0.245530504754907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H3">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>64210.49049830336</v>
+        <v>72768.39421627371</v>
       </c>
       <c r="R3">
-        <v>577894.4144847302</v>
+        <v>654915.5479464635</v>
       </c>
       <c r="S3">
-        <v>0.2349905539469939</v>
+        <v>0.2656596976127706</v>
       </c>
       <c r="T3">
-        <v>0.2349905539469939</v>
+        <v>0.2656596976127706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H4">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>41485.69813168218</v>
+        <v>31369.50069051736</v>
       </c>
       <c r="R4">
-        <v>373371.2831851396</v>
+        <v>282325.5062146563</v>
       </c>
       <c r="S4">
-        <v>0.151824835929253</v>
+        <v>0.1145224126141667</v>
       </c>
       <c r="T4">
-        <v>0.151824835929253</v>
+        <v>0.1145224126141667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H5">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>22227.6667676191</v>
+        <v>24633.60401081607</v>
       </c>
       <c r="R5">
-        <v>200049.0009085719</v>
+        <v>221702.4360973446</v>
       </c>
       <c r="S5">
-        <v>0.08134639193902461</v>
+        <v>0.08993129315422786</v>
       </c>
       <c r="T5">
-        <v>0.0813463919390246</v>
+        <v>0.08993129315422788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H6">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I6">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J6">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>32357.80790537444</v>
+        <v>29412.1716937612</v>
       </c>
       <c r="R6">
-        <v>291220.27114837</v>
+        <v>264709.5452438509</v>
       </c>
       <c r="S6">
-        <v>0.1184195782524863</v>
+        <v>0.1073766808028873</v>
       </c>
       <c r="T6">
-        <v>0.1184195782524862</v>
+        <v>0.1073766808028873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>11411.53531549544</v>
+        <v>11116.79854084843</v>
       </c>
       <c r="R7">
-        <v>102703.8178394589</v>
+        <v>100051.1868676359</v>
       </c>
       <c r="S7">
-        <v>0.04176269304849514</v>
+        <v>0.04058472597329103</v>
       </c>
       <c r="T7">
-        <v>0.04176269304849514</v>
+        <v>0.04058472597329103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>12028.18094530416</v>
@@ -948,10 +948,10 @@
         <v>108253.6285077374</v>
       </c>
       <c r="S8">
-        <v>0.04401942550783639</v>
+        <v>0.04391196132848815</v>
       </c>
       <c r="T8">
-        <v>0.04401942550783638</v>
+        <v>0.04391196132848815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>7771.276623145012</v>
+        <v>5185.191105742501</v>
       </c>
       <c r="R9">
-        <v>69941.48960830511</v>
+        <v>46666.71995168251</v>
       </c>
       <c r="S9">
-        <v>0.02844047108776445</v>
+        <v>0.01892987080520077</v>
       </c>
       <c r="T9">
-        <v>0.02844047108776445</v>
+        <v>0.01892987080520078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>209.114842</v>
       </c>
       <c r="I10">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J10">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>4163.780650140197</v>
+        <v>4071.787615601979</v>
       </c>
       <c r="R10">
-        <v>37474.02585126177</v>
+        <v>36646.0885404178</v>
       </c>
       <c r="S10">
-        <v>0.0152381505560384</v>
+        <v>0.01486510563211433</v>
       </c>
       <c r="T10">
-        <v>0.01523815055603839</v>
+        <v>0.01486510563211433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>209.114842</v>
       </c>
       <c r="I11">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J11">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>6061.401578757931</v>
+        <v>4861.656312979291</v>
       </c>
       <c r="R11">
-        <v>54552.61420882137</v>
+        <v>43754.90681681362</v>
       </c>
       <c r="S11">
-        <v>0.02218285678296051</v>
+        <v>0.01774872401560372</v>
       </c>
       <c r="T11">
-        <v>0.0221828567829605</v>
+        <v>0.01774872401560372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H12">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>63.41481979077867</v>
+        <v>173.5436616394276</v>
       </c>
       <c r="R12">
-        <v>570.7333781170079</v>
+        <v>1561.892954754848</v>
       </c>
       <c r="S12">
-        <v>0.0002320786450226171</v>
+        <v>0.000633565673260835</v>
       </c>
       <c r="T12">
-        <v>0.000232078645022617</v>
+        <v>0.000633565673260835</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H13">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>66.84156916393199</v>
+        <v>187.771196576021</v>
       </c>
       <c r="R13">
-        <v>601.5741224753879</v>
+        <v>1689.940769184189</v>
       </c>
       <c r="S13">
-        <v>0.0002446194888502482</v>
+        <v>0.0006855069407539311</v>
       </c>
       <c r="T13">
-        <v>0.0002446194888502482</v>
+        <v>0.0006855069407539311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H14">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I14">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J14">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>43.18560938350267</v>
+        <v>80.9457010023381</v>
       </c>
       <c r="R14">
-        <v>388.670484451524</v>
+        <v>728.5113090210431</v>
       </c>
       <c r="S14">
-        <v>0.0001580459858321116</v>
+        <v>0.0002955130545745338</v>
       </c>
       <c r="T14">
-        <v>0.0001580459858321116</v>
+        <v>0.0002955130545745339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H15">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I15">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J15">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>23.13846404334666</v>
+        <v>63.56442726142188</v>
       </c>
       <c r="R15">
-        <v>208.24617639012</v>
+        <v>572.0798453527971</v>
       </c>
       <c r="S15">
-        <v>8.467962852849262E-05</v>
+        <v>0.0002320582542334271</v>
       </c>
       <c r="T15">
-        <v>8.467962852849261E-05</v>
+        <v>0.0002320582542334271</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H16">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I16">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J16">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>33.68369620471066</v>
+        <v>75.89501915382134</v>
       </c>
       <c r="R16">
-        <v>303.153265842396</v>
+        <v>683.0551723843921</v>
       </c>
       <c r="S16">
-        <v>0.000123271919723715</v>
+        <v>0.0002770742443318968</v>
       </c>
       <c r="T16">
-        <v>0.000123271919723715</v>
+        <v>0.0002770742443318969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H17">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>2789.179375295695</v>
+        <v>3099.88085394859</v>
       </c>
       <c r="R17">
-        <v>25102.61437766126</v>
+        <v>27898.92768553731</v>
       </c>
       <c r="S17">
-        <v>0.01020753464693724</v>
+        <v>0.01131691057862359</v>
       </c>
       <c r="T17">
-        <v>0.01020753464693724</v>
+        <v>0.01131691057862359</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H18">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I18">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J18">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>2939.898382421165</v>
+        <v>3354.016687733549</v>
       </c>
       <c r="R18">
-        <v>26459.08544179048</v>
+        <v>30186.15018960194</v>
       </c>
       <c r="S18">
-        <v>0.0107591196402911</v>
+        <v>0.0122446986586412</v>
       </c>
       <c r="T18">
-        <v>0.0107591196402911</v>
+        <v>0.0122446986586412</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H19">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I19">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J19">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>1899.436305258684</v>
+        <v>1445.872620043807</v>
       </c>
       <c r="R19">
-        <v>17094.92674732815</v>
+        <v>13012.85358039427</v>
       </c>
       <c r="S19">
-        <v>0.006951349944469954</v>
+        <v>0.005278529053229003</v>
       </c>
       <c r="T19">
-        <v>0.006951349944469954</v>
+        <v>0.005278529053229005</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H20">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I20">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J20">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1017.701018447239</v>
+        <v>1135.403904691633</v>
       </c>
       <c r="R20">
-        <v>9159.309166025148</v>
+        <v>10218.63514222469</v>
       </c>
       <c r="S20">
-        <v>0.003724471254173889</v>
+        <v>0.004145083332363575</v>
       </c>
       <c r="T20">
-        <v>0.003724471254173889</v>
+        <v>0.004145083332363575</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H21">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I21">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J21">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1481.512855321027</v>
+        <v>1355.656061203805</v>
       </c>
       <c r="R21">
-        <v>13333.61569788924</v>
+        <v>12200.90455083425</v>
       </c>
       <c r="S21">
-        <v>0.005421879257575207</v>
+        <v>0.004949170352941239</v>
       </c>
       <c r="T21">
-        <v>0.005421879257575205</v>
+        <v>0.00494917035294124</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H22">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I22">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J22">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>69.581195430344</v>
+        <v>71.98549144859734</v>
       </c>
       <c r="R22">
-        <v>626.230758873096</v>
+        <v>647.869423037376</v>
       </c>
       <c r="S22">
-        <v>0.0002546456744307633</v>
+        <v>0.0002628015101433185</v>
       </c>
       <c r="T22">
-        <v>0.0002546456744307633</v>
+        <v>0.0002628015101433185</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H23">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I23">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J23">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>73.341157511934</v>
+        <v>77.887038556902</v>
       </c>
       <c r="R23">
-        <v>660.0704176074059</v>
+        <v>700.983347012118</v>
       </c>
       <c r="S23">
-        <v>0.0002684059738073251</v>
+        <v>0.0002843466223740501</v>
       </c>
       <c r="T23">
-        <v>0.000268405973807325</v>
+        <v>0.0002843466223740501</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H24">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I24">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J24">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>47.384922581282</v>
+        <v>33.57608115594066</v>
       </c>
       <c r="R24">
-        <v>426.464303231538</v>
+        <v>302.184730403466</v>
       </c>
       <c r="S24">
-        <v>0.0001734141745328219</v>
+        <v>0.0001225781008771283</v>
       </c>
       <c r="T24">
-        <v>0.0001734141745328219</v>
+        <v>0.0001225781008771284</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H25">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I25">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J25">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>25.38841857266</v>
+        <v>26.36637081317933</v>
       </c>
       <c r="R25">
-        <v>228.49576715394</v>
+        <v>237.297337318614</v>
       </c>
       <c r="S25">
-        <v>9.291376686158726E-05</v>
+        <v>9.625720304556261E-05</v>
       </c>
       <c r="T25">
-        <v>9.291376686158725E-05</v>
+        <v>9.625720304556262E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H26">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I26">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J26">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>36.959055567278</v>
+        <v>31.481070531056</v>
       </c>
       <c r="R26">
-        <v>332.631500105502</v>
+        <v>283.329634779504</v>
       </c>
       <c r="S26">
-        <v>0.0001352587228926693</v>
+        <v>0.0001149297269491802</v>
       </c>
       <c r="T26">
-        <v>0.0001352587228926693</v>
+        <v>0.0001149297269491802</v>
       </c>
     </row>
   </sheetData>
